--- a/data/STA Data/Pruned Data/IBSC Teacher STA KF2.xlsx
+++ b/data/STA Data/Pruned Data/IBSC Teacher STA KF2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c85ca06803d405f/2017-2019/Documents/RF/IBSC Survey Feedback/Master Dash/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c85ca06803d405f/2017-2019/Documents/RF/IBSC Survey Feedback/Master Dash/data/STA Data/Pruned Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F0F8CD08483A9CA88C8B9CDE1E3EAD6752C038FE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04FFA8CA-7649-4F69-8B20-90D6AB496D58}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_F0F8CD08483A9CA88C8B9CDE1E3EAD6752C038FE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F4A56FB-4093-481F-8C3E-FAA35CF39BE6}"/>
   <bookViews>
-    <workbookView xWindow="43170" yWindow="4960" windowWidth="28100" windowHeight="15910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46890" yWindow="2750" windowWidth="28100" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Node Attributes" sheetId="1" r:id="rId1"/>
@@ -516,6 +516,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -842,14 +846,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.08203125" customWidth="1"/>
+    <col min="28" max="28" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -950,7 +958,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1051,7 +1059,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1152,7 +1160,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -1253,7 +1261,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -1354,7 +1362,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -1455,7 +1463,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -1556,7 +1564,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -1657,7 +1665,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -1758,7 +1766,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -1859,7 +1867,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -1960,7 +1968,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -2061,7 +2069,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>102</v>
       </c>
@@ -2162,7 +2170,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>105</v>
       </c>
@@ -2263,7 +2271,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>108</v>
       </c>
@@ -2364,7 +2372,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -2465,7 +2473,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>116</v>
       </c>
@@ -2566,7 +2574,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>119</v>
       </c>
@@ -2667,7 +2675,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>123</v>
       </c>
@@ -2768,7 +2776,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>126</v>
       </c>
@@ -2869,7 +2877,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>129</v>
       </c>
@@ -2984,9 +2992,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>133</v>
       </c>
@@ -3000,7 +3008,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -3014,7 +3022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -3028,7 +3036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -3042,7 +3050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -3056,7 +3064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -3070,7 +3078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -3084,7 +3092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -3098,7 +3106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -3112,7 +3120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -3126,7 +3134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -3140,7 +3148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -3154,7 +3162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -3168,7 +3176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -3182,7 +3190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -3196,7 +3204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -3210,7 +3218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -3224,7 +3232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -3238,7 +3246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -3252,7 +3260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -3280,9 +3288,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>133</v>
       </c>
@@ -3296,7 +3304,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -3310,7 +3318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -3324,7 +3332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -3338,7 +3346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -3352,7 +3360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -3366,7 +3374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -3380,7 +3388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -3394,7 +3402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -3408,7 +3416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -3422,7 +3430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -3436,7 +3444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -3450,7 +3458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -3464,7 +3472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -3478,7 +3486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -3492,7 +3500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -3506,7 +3514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -3520,7 +3528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -3534,7 +3542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -3548,7 +3556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -3576,9 +3584,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>133</v>
       </c>
@@ -3592,7 +3600,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -3606,7 +3614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -3620,7 +3628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -3634,7 +3642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -3648,7 +3656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -3662,7 +3670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -3676,7 +3684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -3690,7 +3698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -3704,7 +3712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -3718,7 +3726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -3732,7 +3740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -3746,7 +3754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -3760,7 +3768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -3774,7 +3782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -3788,7 +3796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -3802,7 +3810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -3816,7 +3824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -3830,7 +3838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -3844,7 +3852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -3872,9 +3880,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>133</v>
       </c>
@@ -3888,7 +3896,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -3902,7 +3910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -3916,7 +3924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -3930,7 +3938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -3944,7 +3952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -3958,7 +3966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -3972,7 +3980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -3986,7 +3994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -4000,7 +4008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -4014,7 +4022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -4028,7 +4036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -4042,7 +4050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -4056,7 +4064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -4070,7 +4078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -4084,7 +4092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -4098,7 +4106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -4112,7 +4120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -4126,7 +4134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -4140,7 +4148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -4168,9 +4176,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>133</v>
       </c>
@@ -4184,7 +4192,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -4198,7 +4206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -4212,7 +4220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -4226,7 +4234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -4240,7 +4248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -4254,7 +4262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -4268,7 +4276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -4282,7 +4290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -4296,7 +4304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -4310,7 +4318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -4324,7 +4332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -4338,7 +4346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -4352,7 +4360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -4366,7 +4374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -4380,7 +4388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -4394,7 +4402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -4408,7 +4416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -4422,7 +4430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -4436,7 +4444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -4464,9 +4472,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>133</v>
       </c>
@@ -4480,7 +4488,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -4494,7 +4502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -4508,7 +4516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -4522,7 +4530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -4536,7 +4544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -4550,7 +4558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -4564,7 +4572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -4578,7 +4586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -4592,7 +4600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -4606,7 +4614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -4620,7 +4628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -4634,7 +4642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -4648,7 +4656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -4662,7 +4670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -4676,7 +4684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -4690,7 +4698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -4704,7 +4712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -4718,7 +4726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -4732,7 +4740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>33</v>
       </c>
